--- a/searched_address.xlsx
+++ b/searched_address.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>검색 키워드</t>
   </si>
@@ -28,466 +28,412 @@
     <t>경도</t>
   </si>
   <si>
-    <t>추이트레이드</t>
-  </si>
-  <si>
-    <t>아시아사랑나눔</t>
-  </si>
-  <si>
-    <t>키움참치동교동점</t>
-  </si>
-  <si>
-    <t>역삼동</t>
-  </si>
-  <si>
-    <t>가연간호방문요양센터</t>
-  </si>
-  <si>
-    <t>국제의원</t>
-  </si>
-  <si>
-    <t>리버뷰맨션</t>
-  </si>
-  <si>
-    <t>성북구립미술관</t>
-  </si>
-  <si>
-    <t>게스트하우스고시텔</t>
-  </si>
-  <si>
-    <t>엠플라자</t>
-  </si>
-  <si>
-    <t>외국인근로자센터입구</t>
-  </si>
-  <si>
-    <t>가산동</t>
-  </si>
-  <si>
-    <t>녹번종합사회복지관</t>
-  </si>
-  <si>
-    <t>성내지역아동센터</t>
-  </si>
-  <si>
-    <t>월곡어린이집</t>
-  </si>
-  <si>
-    <t>만수경로당</t>
-  </si>
-  <si>
-    <t>창일당고개경로당</t>
-  </si>
-  <si>
-    <t>중구장애인복지관</t>
-  </si>
-  <si>
-    <t>한남동공영주차장(여성안심택배함)</t>
-  </si>
-  <si>
-    <t>성동구다문화가족지원센터</t>
-  </si>
-  <si>
-    <t>광진구청소년상담복지센터</t>
-  </si>
-  <si>
-    <t>다사랑행복센터입구</t>
-  </si>
-  <si>
-    <t>중랑구다문화가족지원센터</t>
-  </si>
-  <si>
-    <t>한국디지털대학교고려대캠퍼스</t>
-  </si>
-  <si>
-    <t>(주)마이티브이</t>
-  </si>
-  <si>
-    <t>도봉구다문화가족지원센터</t>
-  </si>
-  <si>
-    <t>노원구건강가정지원센터</t>
-  </si>
-  <si>
-    <t>서울특별시 은평구 녹번동 86-157</t>
-  </si>
-  <si>
-    <t>서대문구다문화가족지원센터</t>
-  </si>
-  <si>
-    <t>홀트일시보호소</t>
-  </si>
-  <si>
-    <t>신정3동현장민원실도서관</t>
-  </si>
-  <si>
-    <t>강서구건강가정지원센터</t>
-  </si>
-  <si>
-    <t>서울특별시 구로구 가리봉동 118-11</t>
-  </si>
-  <si>
-    <t>자유총연맹금천구</t>
-  </si>
-  <si>
-    <t>신길동</t>
-  </si>
-  <si>
-    <t>동작구다문화가족지원센터</t>
-  </si>
-  <si>
-    <t>관악문화관도서관</t>
-  </si>
-  <si>
-    <t>해마을주간보호센터</t>
-  </si>
-  <si>
-    <t>마천2동주민센터</t>
-  </si>
-  <si>
-    <t>강동구건강가정지원센터</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 서린동 63</t>
-  </si>
-  <si>
-    <t>서울특별시 영등포구 대림동 604-30</t>
-  </si>
-  <si>
-    <t>서울특별시 마포구 동교동 198-31</t>
-  </si>
-  <si>
-    <t>서울특별시 강남구 역삼동 829-20</t>
-  </si>
-  <si>
-    <t>서울특별시 서초구 반포동 90-12</t>
-  </si>
-  <si>
-    <t>서울특별시 용산구 한남동 737-37</t>
-  </si>
-  <si>
-    <t>서울특별시 용산구 이촌동 300-27</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 성북동 246</t>
-  </si>
-  <si>
-    <t>서울특별시 금천구 가산동 151-30</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 명동2가 31-1</t>
-  </si>
-  <si>
-    <t>서울특별시 성동구 홍익동 147-22</t>
-  </si>
-  <si>
-    <t>서울특별시 금천구 가산동 144-3</t>
-  </si>
-  <si>
-    <t>서울특별시 은평구 녹번동 산28-6</t>
-  </si>
-  <si>
-    <t>서울특별시 강동구 성내동 508-1</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 하월곡동 222-5</t>
-  </si>
-  <si>
-    <t>서울특별시 양천구 목동 931</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 창신동 197-17</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 신당동 160-2</t>
-  </si>
-  <si>
-    <t>서울특별시 용산구 한남동 685-46</t>
-  </si>
-  <si>
-    <t>서울특별시 성동구 홍익동 373-1</t>
-  </si>
-  <si>
-    <t>서울특별시 광진구 자양동 13-28</t>
-  </si>
-  <si>
-    <t>서울특별시 동대문구 용두동 255-69</t>
-  </si>
-  <si>
-    <t>서울특별시 중랑구 면목동 62-2</t>
+    <t>서울시립대학교</t>
+  </si>
+  <si>
+    <t>서울여자대학교</t>
+  </si>
+  <si>
+    <t>서일대학교</t>
+  </si>
+  <si>
+    <t>성균관대학교</t>
+  </si>
+  <si>
+    <t>성신여자대학교</t>
+  </si>
+  <si>
+    <t>세종대학교</t>
+  </si>
+  <si>
+    <t>숙명여자대학교TESOL대학원</t>
+  </si>
+  <si>
+    <t>숭실대학교</t>
+  </si>
+  <si>
+    <t>연세대학교아식설계공동연구소</t>
+  </si>
+  <si>
+    <t>이화여자대학교</t>
+  </si>
+  <si>
+    <t>중앙대학교안성캠퍼스산업대실험관</t>
+  </si>
+  <si>
+    <t>총신대학교</t>
+  </si>
+  <si>
+    <t>한국방송통신대학교</t>
+  </si>
+  <si>
+    <t>한국외국어대학교</t>
+  </si>
+  <si>
+    <t>한성대학교</t>
+  </si>
+  <si>
+    <t>한양대학교ERICA캠퍼스경상대학</t>
+  </si>
+  <si>
+    <t>홍익대학교</t>
+  </si>
+  <si>
+    <t>건국대학교건축전문대학원</t>
+  </si>
+  <si>
+    <t>경기대학교교육대학원</t>
+  </si>
+  <si>
+    <t>경희대학교광릉캠퍼스</t>
+  </si>
+  <si>
+    <t>고려대학교</t>
+  </si>
+  <si>
+    <t>광운대학교</t>
+  </si>
+  <si>
+    <t>국민대학교</t>
+  </si>
+  <si>
+    <t>덕성여자대학교</t>
+  </si>
+  <si>
+    <t>동국대학교서울캠퍼스원흥관</t>
+  </si>
+  <si>
+    <t>동양미래대학교</t>
+  </si>
+  <si>
+    <t>명지대학교자연캠퍼스토목환경과</t>
+  </si>
+  <si>
+    <t>사이버한국외국어대학교</t>
+  </si>
+  <si>
+    <t>삼육대학교</t>
+  </si>
+  <si>
+    <t>상명대학교서울캠퍼스교육대학원</t>
+  </si>
+  <si>
+    <t>서강대학교</t>
+  </si>
+  <si>
+    <t>서경대학교</t>
+  </si>
+  <si>
+    <t>서울과학기술대학교</t>
+  </si>
+  <si>
+    <t>서울대학교제101학군단</t>
+  </si>
+  <si>
+    <t>서울특별시 동대문구 전농동 80학</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 공릉동 126 학</t>
+  </si>
+  <si>
+    <t>서울특별시 중랑구 면목동 49-3 학</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 와룡동 2-103</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 돈암동 산7-1임</t>
+  </si>
+  <si>
+    <t>서울특별시 광진구 군자동 98학</t>
+  </si>
+  <si>
+    <t>서울특별시 용산구 청파동2가 53-12</t>
+  </si>
+  <si>
+    <t>서울특별시 동작구 상도동 511 학</t>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 연희동 7</t>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 대현동 11-1학</t>
+  </si>
+  <si>
+    <t>경기도 안성시 대덕면 내리 10-1</t>
+  </si>
+  <si>
+    <t>서울특별시 동작구 사당동 200-1학</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 동숭동 199-1</t>
+  </si>
+  <si>
+    <t>서울특별시 동대문구 이문동 270-32</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 삼선동2가 389학</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1271</t>
+  </si>
+  <si>
+    <t>서울특별시 마포구 상수동 72-1 학</t>
+  </si>
+  <si>
+    <t>서울특별시 광진구 화양동 1</t>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 이의동 산 94-6</t>
+  </si>
+  <si>
+    <t>경기도 남양주시 진접읍 부평리 258-5</t>
   </si>
   <si>
     <t>서울특별시 성북구 안암동5가 1-2</t>
   </si>
   <si>
-    <t>서울특별시 강북구 번동 417-93</t>
-  </si>
-  <si>
-    <t>서울특별시 도봉구 창동 303</t>
-  </si>
-  <si>
-    <t>서울특별시 노원구 공릉동 569-19</t>
-  </si>
-  <si>
-    <t>서울특별시 서대문구 북가좌동 333-5</t>
-  </si>
-  <si>
-    <t>서울특별시 마포구 합정동 471</t>
-  </si>
-  <si>
-    <t>서울특별시 양천구 신정동 1287-5</t>
-  </si>
-  <si>
-    <t>서울특별시 강서구 화곡동 890</t>
-  </si>
-  <si>
-    <t>서울특별시 금천구 시흥동 841</t>
-  </si>
-  <si>
-    <t>서울특별시 영등포구 신길동 465-1</t>
-  </si>
-  <si>
-    <t>서울특별시 동작구 사당동 1136-1</t>
-  </si>
-  <si>
-    <t>서울특별시 관악구 신림동 209-1</t>
-  </si>
-  <si>
-    <t>서울특별시 강남구 개포동 14-2</t>
-  </si>
-  <si>
-    <t>서울특별시 송파구 마천동 127-1</t>
-  </si>
-  <si>
-    <t>서울특별시 강동구 명일동 327-6</t>
-  </si>
-  <si>
-    <t>954210.584323716</t>
-  </si>
-  <si>
-    <t>946738.276127427</t>
-  </si>
-  <si>
-    <t>949089.554526342</t>
-  </si>
-  <si>
-    <t>958726.15872126</t>
-  </si>
-  <si>
-    <t>955670.563622854</t>
-  </si>
-  <si>
-    <t>955584.598722942</t>
-  </si>
-  <si>
-    <t>953331.75412409</t>
-  </si>
-  <si>
-    <t>955414.58962312</t>
-  </si>
-  <si>
-    <t>946344.301227584</t>
-  </si>
-  <si>
-    <t>954528.03702351</t>
-  </si>
-  <si>
-    <t>958978.41062121</t>
-  </si>
-  <si>
-    <t>946221.637427651</t>
-  </si>
-  <si>
-    <t>949845.215625948</t>
-  </si>
-  <si>
-    <t>967253.89001685</t>
-  </si>
-  <si>
-    <t>959177.223221206</t>
-  </si>
-  <si>
-    <t>945017.058028338</t>
-  </si>
-  <si>
-    <t>957010.189022243</t>
-  </si>
-  <si>
-    <t>957855.476421753</t>
-  </si>
-  <si>
-    <t>955848.959922766</t>
-  </si>
-  <si>
-    <t>958590.76932145</t>
-  </si>
-  <si>
-    <t>961583.534919791</t>
-  </si>
-  <si>
-    <t>958856.629821279</t>
-  </si>
-  <si>
-    <t>964162.844418541</t>
-  </si>
-  <si>
-    <t>958190.20802169</t>
-  </si>
-  <si>
-    <t>958504.56002158</t>
-  </si>
-  <si>
-    <t>959301.474621197</t>
-  </si>
-  <si>
-    <t>962287.235619575</t>
-  </si>
-  <si>
-    <t>948159.764026869</t>
-  </si>
-  <si>
-    <t>947982.600026867</t>
-  </si>
-  <si>
-    <t>941787.995730005</t>
-  </si>
-  <si>
-    <t>942471.119129697</t>
-  </si>
-  <si>
-    <t>947306.354227068</t>
-  </si>
-  <si>
-    <t>948870.26862632</t>
-  </si>
-  <si>
-    <t>953806.318323773</t>
-  </si>
-  <si>
-    <t>950922.229125252</t>
-  </si>
-  <si>
-    <t>962675.142719244</t>
-  </si>
-  <si>
-    <t>968926.784016032</t>
-  </si>
-  <si>
-    <t>968751.082516097</t>
-  </si>
-  <si>
-    <t>1952399.071191648</t>
-  </si>
-  <si>
-    <t>1945222.170483913</t>
-  </si>
-  <si>
-    <t>1951299.870790456</t>
-  </si>
-  <si>
-    <t>1944122.318582772</t>
-  </si>
-  <si>
-    <t>1944361.212283014</t>
-  </si>
-  <si>
-    <t>1948526.521487503</t>
-  </si>
-  <si>
-    <t>1946896.337185744</t>
-  </si>
-  <si>
-    <t>1955158.835894607</t>
-  </si>
-  <si>
-    <t>1942051.236880474</t>
-  </si>
-  <si>
-    <t>1951598.701990797</t>
-  </si>
-  <si>
-    <t>1951823.497291056</t>
-  </si>
-  <si>
-    <t>1942139.16208057</t>
-  </si>
-  <si>
-    <t>1956075.091595559</t>
-  </si>
-  <si>
-    <t>1948166.404287153</t>
-  </si>
-  <si>
-    <t>1956711.802396281</t>
-  </si>
-  <si>
-    <t>1947279.278686116</t>
-  </si>
-  <si>
-    <t>1952813.002892104</t>
-  </si>
-  <si>
-    <t>1951854.791691082</t>
-  </si>
-  <si>
-    <t>1948510.762087484</t>
-  </si>
-  <si>
-    <t>1951898.456291134</t>
-  </si>
-  <si>
-    <t>1949083.724088122</t>
-  </si>
-  <si>
-    <t>1952597.180791881</t>
-  </si>
-  <si>
-    <t>1954018.041993422</t>
-  </si>
-  <si>
-    <t>1954929.008594373</t>
-  </si>
-  <si>
-    <t>1959909.824299675</t>
-  </si>
-  <si>
-    <t>1961721.317601599</t>
-  </si>
-  <si>
-    <t>1958199.799697872</t>
-  </si>
-  <si>
-    <t>1953892.979493224</t>
-  </si>
-  <si>
-    <t>1950139.004289203</t>
-  </si>
-  <si>
-    <t>1945983.019884699</t>
-  </si>
-  <si>
-    <t>1947949.309686826</t>
-  </si>
-  <si>
-    <t>1939757.720877997</t>
-  </si>
-  <si>
-    <t>1945919.424584669</t>
-  </si>
-  <si>
-    <t>1943366.689081932</t>
-  </si>
-  <si>
-    <t>1941083.928479454</t>
-  </si>
-  <si>
-    <t>1943950.1211826</t>
-  </si>
-  <si>
-    <t>1944232.552182927</t>
-  </si>
-  <si>
-    <t>1950105.53918924</t>
+    <t>서울특별시 노원구 월계동 447-1 학</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 정릉동 산1-216임</t>
+  </si>
+  <si>
+    <t>서울특별시 도봉구 쌍문동 419학</t>
+  </si>
+  <si>
+    <t>서울특별시 중구 장충동2가 192-5</t>
+  </si>
+  <si>
+    <t>서울특별시 구로구 고척동 62-160대</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 남동 555</t>
+  </si>
+  <si>
+    <t>서울특별시 동대문구 이문동 270-1</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 공릉동 26-21 학</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 홍지동 7-1</t>
+  </si>
+  <si>
+    <t>서울특별시 마포구 대흥동 산1-30임</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 정릉동 산16-1 임</t>
+  </si>
+  <si>
+    <t>서울특별시 노원구 공릉동 172 학</t>
+  </si>
+  <si>
+    <t>서울특별시 관악구 신림동 산 56-1</t>
+  </si>
+  <si>
+    <t>961050.857620181</t>
+  </si>
+  <si>
+    <t>963857.694918773</t>
+  </si>
+  <si>
+    <t>964461.617918431</t>
+  </si>
+  <si>
+    <t>955273.994223182</t>
+  </si>
+  <si>
+    <t>957904.680521768</t>
+  </si>
+  <si>
+    <t>962360.554519406</t>
+  </si>
+  <si>
+    <t>952644.87092442</t>
+  </si>
+  <si>
+    <t>952029.268324737</t>
+  </si>
+  <si>
+    <t>950551.458425603</t>
+  </si>
+  <si>
+    <t>951126.741025284</t>
+  </si>
+  <si>
+    <t>975785.835012067</t>
+  </si>
+  <si>
+    <t>952879.501224239</t>
+  </si>
+  <si>
+    <t>956174.06162265</t>
+  </si>
+  <si>
+    <t>961130.300320114</t>
+  </si>
+  <si>
+    <t>956761.856622404</t>
+  </si>
+  <si>
+    <t>941146.08822995</t>
+  </si>
+  <si>
+    <t>949279.8413262</t>
+  </si>
+  <si>
+    <t>962470.95531938</t>
+  </si>
+  <si>
+    <t>958686.503120979</t>
+  </si>
+  <si>
+    <t>972389.794514416</t>
+  </si>
+  <si>
+    <t>958643.63652139</t>
+  </si>
+  <si>
+    <t>961031.672220231</t>
+  </si>
+  <si>
+    <t>955459.827523057</t>
+  </si>
+  <si>
+    <t>957358.602722187</t>
+  </si>
+  <si>
+    <t>955724.991822875</t>
+  </si>
+  <si>
+    <t>944095.374428822</t>
+  </si>
+  <si>
+    <t>971944.551214198</t>
+  </si>
+  <si>
+    <t>961008.698420237</t>
+  </si>
+  <si>
+    <t>965088.040918105</t>
+  </si>
+  <si>
+    <t>951868.845924986</t>
+  </si>
+  <si>
+    <t>950629.053125505</t>
+  </si>
+  <si>
+    <t>957051.537322258</t>
+  </si>
+  <si>
+    <t>962797.697719306</t>
+  </si>
+  <si>
+    <t>951678.597624824</t>
+  </si>
+  <si>
+    <t>1953896.422493274</t>
+  </si>
+  <si>
+    <t>1958809.673298522</t>
+  </si>
+  <si>
+    <t>1954158.252093572</t>
+  </si>
+  <si>
+    <t>1954387.433393782</t>
+  </si>
+  <si>
+    <t>1954786.287194222</t>
+  </si>
+  <si>
+    <t>1950321.099789458</t>
+  </si>
+  <si>
+    <t>1949815.458988876</t>
+  </si>
+  <si>
+    <t>1944248.359382886</t>
+  </si>
+  <si>
+    <t>1952698.955091962</t>
+  </si>
+  <si>
+    <t>1951523.947890707</t>
+  </si>
+  <si>
+    <t>1889228.645121972</t>
+  </si>
+  <si>
+    <t>1943470.863582049</t>
+  </si>
+  <si>
+    <t>1953414.003092748</t>
+  </si>
+  <si>
+    <t>1955396.742794886</t>
+  </si>
+  <si>
+    <t>1953792.745293152</t>
+  </si>
+  <si>
+    <t>1922529.773259138</t>
+  </si>
+  <si>
+    <t>1950353.196189436</t>
+  </si>
+  <si>
+    <t>1949403.952288475</t>
+  </si>
+  <si>
+    <t>1922503.87025918</t>
+  </si>
+  <si>
+    <t>1972200.632412695</t>
+  </si>
+  <si>
+    <t>1954531.750793951</t>
+  </si>
+  <si>
+    <t>1957908.941997555</t>
+  </si>
+  <si>
+    <t>1957092.484096665</t>
+  </si>
+  <si>
+    <t>1961447.786001304</t>
+  </si>
+  <si>
+    <t>1951196.113690373</t>
+  </si>
+  <si>
+    <t>1944794.052383436</t>
+  </si>
+  <si>
+    <t>1913389.311749131</t>
+  </si>
+  <si>
+    <t>1955408.067094891</t>
+  </si>
+  <si>
+    <t>1960462.621200287</t>
+  </si>
+  <si>
+    <t>1956033.025995529</t>
+  </si>
+  <si>
+    <t>1950410.524389502</t>
+  </si>
+  <si>
+    <t>1957401.282997</t>
+  </si>
+  <si>
+    <t>1959212.560398952</t>
+  </si>
+  <si>
+    <t>1939808.23807808</t>
   </si>
 </sst>
 </file>
@@ -845,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -893,13 +839,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -910,13 +856,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -924,16 +870,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -941,16 +887,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -958,16 +904,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -975,16 +921,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -992,16 +938,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1009,16 +955,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1026,16 +972,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1043,16 +989,16 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1060,16 +1006,16 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1077,16 +1023,16 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1094,16 +1040,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1111,16 +1057,16 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1128,16 +1074,16 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1145,16 +1091,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1162,16 +1108,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1179,16 +1125,16 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1196,16 +1142,16 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1213,16 +1159,16 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1230,16 +1176,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1247,16 +1193,16 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1264,16 +1210,16 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1281,16 +1227,16 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1298,16 +1244,16 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1315,16 +1261,16 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1332,16 +1278,16 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1349,16 +1295,16 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1366,10 +1312,16 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1377,16 +1329,16 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1394,16 +1346,16 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1411,16 +1363,16 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1428,16 +1380,16 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1445,129 +1397,16 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>35</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>40</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" t="s">
-        <v>157</v>
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
